--- a/clms-warehouse-manage/warehouse-service/src/main/resources/templates/transfer_inventory_list.xlsx
+++ b/clms-warehouse-manage/warehouse-service/src/main/resources/templates/transfer_inventory_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:I29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>库存转换单-ZH20180711000003</t>
   </si>
@@ -30,24 +31,45 @@
     <t>业务组名称：</t>
   </si>
   <si>
+    <t>groupName</t>
+  </si>
+  <si>
     <t>客户名称：</t>
   </si>
   <si>
+    <t>customerName</t>
+  </si>
+  <si>
     <t>仓库名称：</t>
   </si>
   <si>
+    <t>warehouseName</t>
+  </si>
+  <si>
     <t>创建人：</t>
   </si>
   <si>
+    <t>createName</t>
+  </si>
+  <si>
     <t>创建时间：</t>
   </si>
   <si>
+    <t>createTime</t>
+  </si>
+  <si>
     <t>完成时间：</t>
   </si>
   <si>
+    <t>completeTime</t>
+  </si>
+  <si>
     <t>备注：</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>消耗商品信息</t>
   </si>
   <si>
@@ -76,6 +98,33 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>GoodsName</t>
+  </si>
+  <si>
+    <t>GoodsCode</t>
+  </si>
+  <si>
+    <t>GoodsBarcode</t>
+  </si>
+  <si>
+    <t>GoodsSpec</t>
+  </si>
+  <si>
+    <t>GoodsUnit</t>
+  </si>
+  <si>
+    <t>GoodsBatch</t>
+  </si>
+  <si>
+    <t>WhLocCode</t>
+  </si>
+  <si>
+    <t>TransferNum</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
   <si>
     <t>生成商品信息</t>
@@ -89,13 +138,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +154,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -128,13 +177,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,6 +222,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -152,21 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,55 +280,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,25 +312,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,43 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,139 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +537,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,32 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,11 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,137 +654,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +807,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C8" sqref="C8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1157,38 +1216,59 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1201,36 +1281,65 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1243,31 +1352,60 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/clms-warehouse-manage/warehouse-service/src/main/resources/templates/transfer_inventory_list.xlsx
+++ b/clms-warehouse-manage/warehouse-service/src/main/resources/templates/transfer_inventory_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20235" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>库存转换单-ZH20180711000003</t>
   </si>
@@ -31,45 +31,27 @@
     <t>业务组名称：</t>
   </si>
   <si>
-    <t>groupName</t>
+    <t xml:space="preserve">        </t>
   </si>
   <si>
     <t>客户名称：</t>
   </si>
   <si>
-    <t>customerName</t>
-  </si>
-  <si>
     <t>仓库名称：</t>
   </si>
   <si>
-    <t>warehouseName</t>
-  </si>
-  <si>
     <t>创建人：</t>
   </si>
   <si>
-    <t>createName</t>
-  </si>
-  <si>
     <t>创建时间：</t>
   </si>
   <si>
-    <t>createTime</t>
-  </si>
-  <si>
     <t>完成时间：</t>
   </si>
   <si>
-    <t>completeTime</t>
-  </si>
-  <si>
     <t>备注：</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
     <t>消耗商品信息</t>
   </si>
   <si>
@@ -100,31 +82,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>GoodsName</t>
-  </si>
-  <si>
-    <t>GoodsCode</t>
-  </si>
-  <si>
-    <t>GoodsBarcode</t>
-  </si>
-  <si>
-    <t>GoodsSpec</t>
-  </si>
-  <si>
-    <t>GoodsUnit</t>
-  </si>
-  <si>
-    <t>GoodsBatch</t>
-  </si>
-  <si>
-    <t>WhLocCode</t>
-  </si>
-  <si>
-    <t>TransferNum</t>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>生成商品信息</t>
@@ -184,8 +148,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +202,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,28 +213,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,23 +232,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,49 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,49 +307,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +433,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,115 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,46 +502,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -620,17 +569,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1124,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:I9"/>
@@ -1227,48 +1191,48 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1281,65 +1245,500 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1352,60 +1751,495 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="H29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
